--- a/UnityNamespace/src/main/resources/templates/namespace.xlsx
+++ b/UnityNamespace/src/main/resources/templates/namespace.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -44,7 +44,7 @@
     <t>/com</t>
   </si>
   <si>
-    <t>[{"name":"t0","type":"int"},{"name":"t1","type":"long"},{"name":"t2","type":"float"}]</t>
+    <t>[{"name":"t0","type":"integer"},{"name":"t1","type":"long"},{"name":"t2","type":"float"}]</t>
   </si>
   <si>
     <t>/com/dept/group/g1</t>
@@ -845,6 +845,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,7 +1107,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="A4:D4 D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
